--- a/JaneStreetPuzzles/kj2.xlsx
+++ b/JaneStreetPuzzles/kj2.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="345" windowWidth="17295" windowHeight="10845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="17295" windowHeight="10845"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Rätsel" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet 3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -70,6 +71,27 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Anzahl ausgefüllt</t>
+  </si>
+  <si>
+    <t>Größte Zahl</t>
+  </si>
+  <si>
+    <t>Fixierte Zahlen</t>
+  </si>
+  <si>
+    <t>Größte Gruppe</t>
+  </si>
+  <si>
+    <t>max Reihe</t>
+  </si>
+  <si>
+    <t>max Spalte</t>
+  </si>
+  <si>
+    <t>Doppelte Zahlen (### wenn nichts doppelt)</t>
   </si>
 </sst>
 </file>
@@ -225,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -313,11 +335,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -392,6 +425,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="B1:AB14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,745 +753,527 @@
     <col min="17" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
-        <v>1</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17">
-        <v>5</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19">
+    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB1" s="14"/>
+    </row>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19">
         <v>43</v>
       </c>
-      <c r="H1" s="18">
-        <v>14</v>
-      </c>
-      <c r="I1" s="20">
-        <v>41</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="1">
-        <f>COUNTA(A1:J1)</f>
-        <v>5</v>
-      </c>
-      <c r="N1" s="1">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1">
+      <c r="I2" s="18"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L11" si="0">COUNTA(B2:K2)</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <f>COUNTA(B5,B4,B3,B2,C2,D2,E2,E3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="8">
+        <f>COUNTA(F7:F9,G8,H8,H9:H10,I10:K11,J9:K9)</f>
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="14"/>
+      <c r="AB2" s="14"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <f>COUNTA(B6:B11,C7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="2">
+        <f>COUNTA(I6:I9,J8:K8,G7:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
         <v>8</v>
       </c>
-      <c r="P1" s="1">
+      <c r="X3" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Y3" s="14">
         <v>22</v>
       </c>
-      <c r="R1" s="1">
+      <c r="Z3" s="1">
         <v>29</v>
       </c>
-      <c r="S1" s="1">
+      <c r="AA3" s="1">
         <v>36</v>
       </c>
-      <c r="T1" s="1">
+      <c r="AB3" s="14">
         <v>43</v>
       </c>
-      <c r="V1" s="14">
-        <v>1</v>
-      </c>
-      <c r="W1" s="1">
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="29">
+        <v>4</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="28">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
+        <f>COUNTA(C3:D3,C4:C6,D5:D6,E6:G6,E7)</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="14">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="14">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="14">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24">
+      <c r="R4" s="5">
+        <f>COUNTA(J5:J7,K6:K7)</f>
+        <v>3</v>
+      </c>
+      <c r="V4" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="25">
+      <c r="W4" s="1">
+        <v>9</v>
+      </c>
+      <c r="X4" s="14">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>37</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="29">
+        <v>46</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="34">
+        <v>7</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7">
+        <f>COUNTA(D7,D8,C8,C9,C10,D10)</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="11">
+        <f>COUNTA(K4:K5,K3,I4:J4)</f>
+        <v>2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5" s="14">
+        <v>10</v>
+      </c>
+      <c r="X5" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="1">
         <v>45</v>
       </c>
-      <c r="E2" s="26">
-        <v>6</v>
-      </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27">
-        <v>8</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1">
-        <f>COUNTA(A2:J2)</f>
-        <v>5</v>
-      </c>
-      <c r="N2" s="1">
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="37"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="29">
+        <v>16</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="39">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O2" s="1">
-        <v>9</v>
-      </c>
-      <c r="P2" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>23</v>
-      </c>
-      <c r="R2" s="1">
-        <v>30</v>
-      </c>
-      <c r="S2" s="1">
-        <v>37</v>
-      </c>
-      <c r="T2" s="1">
-        <v>44</v>
-      </c>
-      <c r="V2" s="14">
+      <c r="N6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="9">
+        <f>COUNTA(E8:E11,F11,D9,D11,C11)</f>
         <v>2</v>
       </c>
-      <c r="W2" s="1">
-        <v>9</v>
-      </c>
-      <c r="X2" s="1">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="14">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="14">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>47</v>
-      </c>
-      <c r="B3" s="29">
+      <c r="Q6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="12">
+        <f>COUNTA(F2:J3,K2)</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="14">
         <v>4</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31">
-        <v>44</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="32">
-        <v>42</v>
-      </c>
-      <c r="I3" s="33">
-        <v>9</v>
-      </c>
-      <c r="J3" s="28">
-        <v>40</v>
-      </c>
-      <c r="K3" s="1">
-        <f>COUNTA(A3:J3)</f>
-        <v>6</v>
-      </c>
-      <c r="N3" s="1">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1">
-        <v>10</v>
-      </c>
-      <c r="P3" s="1">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>24</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="W6" s="1">
+        <v>11</v>
+      </c>
+      <c r="X6" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="14">
+        <f>D10</f>
+        <v>25</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="37"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="42">
+        <v>28</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44">
+        <v>34</v>
+      </c>
+      <c r="K7" s="39">
         <v>31</v>
       </c>
-      <c r="S3" s="1">
-        <v>38</v>
-      </c>
-      <c r="T3" s="1">
-        <v>45</v>
-      </c>
-      <c r="V3" s="14">
-        <v>3</v>
-      </c>
-      <c r="W3" s="14">
-        <v>10</v>
-      </c>
-      <c r="X3" s="1">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="14">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="14">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="29">
-        <v>46</v>
-      </c>
-      <c r="D4" s="31">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="34">
-        <v>7</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30">
-        <v>9</v>
-      </c>
-      <c r="I4" s="35">
-        <v>12</v>
-      </c>
-      <c r="J4" s="36">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1">
-        <f>COUNTA(A4:J4)</f>
-        <v>6</v>
-      </c>
-      <c r="N4" s="1">
-        <v>4</v>
-      </c>
-      <c r="O4" s="1">
-        <v>11</v>
-      </c>
-      <c r="P4" s="1">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>C9</f>
-        <v>25</v>
-      </c>
-      <c r="R4" s="1">
-        <v>32</v>
-      </c>
-      <c r="S4" s="1">
-        <v>39</v>
-      </c>
-      <c r="T4" s="1">
-        <v>46</v>
-      </c>
-      <c r="V4" s="14">
-        <v>4</v>
-      </c>
-      <c r="W4" s="1">
-        <v>11</v>
-      </c>
-      <c r="X4" s="1">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="14">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="14">
-        <v>39</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="23">
-        <v>48</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="29">
-        <v>16</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="38">
-        <v>32</v>
-      </c>
-      <c r="I5" s="44">
-        <v>39</v>
-      </c>
-      <c r="J5" s="39">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <f>COUNTA(A5:J5)</f>
-        <v>5</v>
-      </c>
-      <c r="N5" s="1">
-        <v>5</v>
-      </c>
-      <c r="O5" s="1">
-        <v>12</v>
-      </c>
-      <c r="P5" s="1">
-        <f>D8</f>
-        <v>19</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>26</v>
-      </c>
-      <c r="R5" s="1">
-        <v>33</v>
-      </c>
-      <c r="S5" s="1">
-        <v>40</v>
-      </c>
-      <c r="T5" s="1">
-        <v>47</v>
-      </c>
-      <c r="V5" s="14">
-        <v>5</v>
-      </c>
-      <c r="W5" s="1">
-        <v>12</v>
-      </c>
-      <c r="X5" s="14">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>33</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="42">
-        <v>28</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43">
-        <v>15</v>
-      </c>
-      <c r="I6" s="44">
-        <v>34</v>
-      </c>
-      <c r="J6" s="39">
-        <v>31</v>
-      </c>
-      <c r="K6" s="1">
-        <f>COUNTA(A6:J6)</f>
-        <v>4</v>
-      </c>
-      <c r="N6" s="1">
-        <v>6</v>
-      </c>
-      <c r="O6" s="1">
-        <v>13</v>
-      </c>
-      <c r="P6" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>27</v>
-      </c>
-      <c r="R6" s="1">
-        <v>34</v>
-      </c>
-      <c r="S6" s="1">
-        <v>41</v>
-      </c>
-      <c r="T6" s="1">
-        <v>48</v>
-      </c>
-      <c r="V6" s="14">
-        <v>6</v>
-      </c>
-      <c r="W6" s="14">
-        <v>13</v>
-      </c>
-      <c r="X6" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>34</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>41</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
-        <v>49</v>
-      </c>
-      <c r="B7" s="41">
-        <v>20</v>
-      </c>
-      <c r="C7" s="41">
-        <v>27</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47">
-        <v>17</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="38">
-        <v>30</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="48">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1">
-        <f>COUNTA(A7:J7)</f>
-        <v>6</v>
-      </c>
-      <c r="N7" s="1">
-        <v>7</v>
-      </c>
-      <c r="O7" s="1">
-        <v>14</v>
-      </c>
-      <c r="P7" s="1">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>28</v>
-      </c>
-      <c r="R7" s="1">
-        <v>35</v>
-      </c>
-      <c r="S7" s="1">
-        <v>42</v>
-      </c>
-      <c r="T7" s="1">
-        <v>49</v>
-      </c>
-      <c r="V7" s="14">
-        <v>7</v>
-      </c>
-      <c r="W7" s="1">
-        <v>14</v>
-      </c>
-      <c r="X7" s="1">
-        <v>21</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>28</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>35</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>42</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
-        <v>26</v>
-      </c>
-      <c r="B8" s="41">
-        <v>23</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="49">
-        <v>19</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="50">
-        <v>29</v>
-      </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="38">
-        <v>35</v>
-      </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="1">
-        <f>COUNTA(A8:J8)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
-        <v>21</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="52">
-        <v>25</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50">
-        <v>18</v>
-      </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="42">
-        <v>37</v>
-      </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="1">
-        <f>COUNTA(A9:J9)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53">
-        <v>24</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55">
-        <v>22</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57">
-        <v>36</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="1">
-        <f>COUNTA(A10:J10)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f>COUNTA(A1:A10)</f>
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" ref="B11:J11" si="0">COUNTA(B1:B10)</f>
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="N7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="10">
+        <f>COUNTA(G9:G11,H11,F10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="13">
+        <f>COUNTA(D4:H4,E5:I5,H6)</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>5</v>
+      </c>
+      <c r="W7" s="1">
+        <v>12</v>
+      </c>
+      <c r="X7" s="14">
+        <f>E9</f>
+        <v>19</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>26</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="45">
+        <v>49</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="1">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>6</v>
+      </c>
+      <c r="W8" s="14">
+        <v>13</v>
+      </c>
+      <c r="X8" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>34</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="37"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="49">
+        <v>19</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <f>MAX(R2:R7,O2:O7)</f>
         <v>3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="O9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="14">
+        <v>7</v>
+      </c>
+      <c r="W9" s="1">
+        <v>14</v>
+      </c>
+      <c r="X9" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>35</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>42</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="37"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="52">
+        <v>25</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="42">
+        <v>37</v>
+      </c>
+      <c r="K10" s="51"/>
+      <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="14">
+        <f>MAX(L2:L11)</f>
+        <v>3</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55">
+        <v>22</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="74">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <f>MAX(B12:K12)</f>
+        <v>4</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f>COUNTA(B2:B11)</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:K12" si="1">COUNTA(C2:C11)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="1">
-        <f>COUNTA(A1:J10)</f>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <f>COUNTA(B2:K11)</f>
+        <v>17</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="e">
+        <f>MODE(B2:K11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <f>MAX(B2:K11)</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f>MAX(A11:J11)</f>
-        <v>7</v>
-      </c>
-      <c r="B12" s="1">
-        <f>A12*COUNTA(A11:J11)</f>
-        <v>70</v>
-      </c>
-      <c r="K12" s="1">
-        <f>MAX(K1:K10)</f>
-        <v>6</v>
-      </c>
-      <c r="L12" s="1">
-        <f>K12*COUNTA(K1:K10)</f>
-        <v>60</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="1">
-        <f>MODE(A1:J10)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="1">
-        <f>MAX(A1:J10)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3">
-        <f>COUNTA(A4,A3,A2,A1,B1,C1,D1,D2)</f>
-        <v>4</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8">
-        <f>COUNTA(E6:E8,F7,G7,G8:G9,H9:J10,I8:J8)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6">
-        <f>COUNTA(A5:A10,B6)</f>
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2">
-        <f>COUNTA(H5:H8,I7:J7,F6:G6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4">
-        <f>COUNTA(B2:C2,B3:B5,C4:C5,D5:F5,D6)</f>
-        <v>5</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5">
-        <f>COUNTA(I4:I6,J5:J6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <f>COUNTA(C6,C7,B7,B8,B9,C9)</f>
-        <v>4</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="11">
-        <f>COUNTA(J3:J4,J2,H3:I3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="9">
-        <f>COUNTA(D7:D10,E10,C8,C10,B10)</f>
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="12">
-        <f>COUNTA(E1:I2,J1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10">
-        <f>COUNTA(F8:F10,G10,E9)</f>
-        <v>3</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="13">
-        <f>COUNTA(C3:G3,D4:H4,G5)</f>
-        <v>4</v>
-      </c>
-      <c r="G19" s="1">
-        <f>MAX(E14:E19,B14:B19)</f>
-        <v>5</v>
-      </c>
-      <c r="H19" s="1">
-        <f>G19*COUNTA(B14:B19,E14:E19)</f>
-        <v>60</v>
+      <c r="O14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1468,9 +1284,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -1507,7 +1335,7 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="1">
-        <f>COUNTA(A1:J1)</f>
+        <f t="shared" ref="K1:K10" si="0">COUNTA(A1:J1)</f>
         <v>6</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1553,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="1">
-        <f>COUNTA(A2:J2)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -1596,7 +1424,7 @@
         <v>40</v>
       </c>
       <c r="K3" s="1">
-        <f>COUNTA(A3:J3)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1640,7 +1468,7 @@
         <v>33</v>
       </c>
       <c r="K4" s="1">
-        <f>COUNTA(A4:J4)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -1683,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="1">
-        <f>COUNTA(A5:J5)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M5" s="9" t="s">
@@ -1726,7 +1554,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="1">
-        <f>COUNTA(A6:J6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M6" s="10" t="s">
@@ -1778,7 +1606,7 @@
         <v>38</v>
       </c>
       <c r="K7" s="1">
-        <f>COUNTA(A7:J7)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="V7" s="14"/>
@@ -1807,7 +1635,7 @@
       <c r="I8" s="47"/>
       <c r="J8" s="51"/>
       <c r="K8" s="1">
-        <f>COUNTA(A8:J8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -1842,7 +1670,7 @@
       </c>
       <c r="J9" s="51"/>
       <c r="K9" s="1">
-        <f>COUNTA(A9:J9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -1877,7 +1705,7 @@
       <c r="I10" s="58"/>
       <c r="J10" s="59"/>
       <c r="K10" s="1">
-        <f>COUNTA(A10:J10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -1890,43 +1718,43 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>COUNTA(A1:A10)</f>
+        <f t="shared" ref="A11:J11" si="1">COUNTA(A1:A10)</f>
         <v>6</v>
       </c>
       <c r="B11" s="1">
-        <f>COUNTA(B1:B10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <f>COUNTA(C1:C10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <f>COUNTA(D1:D10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E11" s="1">
-        <f>COUNTA(E1:E10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F11" s="1">
-        <f>COUNTA(F1:F10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G11" s="1">
-        <f>COUNTA(G1:G10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H11" s="1">
-        <f>COUNTA(H1:H10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I11" s="1">
-        <f>COUNTA(I1:I10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J11" s="1">
-        <f>COUNTA(J1:J10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1937,39 +1765,39 @@
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ref="B13:J13" si="0">1-COUNTA(B1)</f>
+        <f t="shared" ref="B13:J13" si="2">1-COUNTA(B1)</f>
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L13" s="1">
@@ -2009,43 +1837,43 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" ref="A14:J22" si="1">1-COUNTA(A2)</f>
+        <f t="shared" ref="A14:J22" si="3">1-COUNTA(A2)</f>
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14" s="1">
@@ -2081,43 +1909,43 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15" s="1">
@@ -2153,43 +1981,43 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16" s="1">
@@ -2225,43 +2053,43 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17" s="1">
@@ -2297,43 +2125,43 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18" s="1">
@@ -2369,43 +2197,43 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
@@ -2441,43 +2269,43 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L20" s="1">
@@ -2513,43 +2341,43 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L21" s="1">
@@ -2585,43 +2413,43 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L22" s="1">
